--- a/mordomo/pesquisa-netshoes-creatina.xlsx
+++ b/mordomo/pesquisa-netshoes-creatina.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -1535,6 +1537,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
